--- a/theme_data.xlsx
+++ b/theme_data.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Cyan</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amber</t>
+          <t>Gray</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -527,7 +527,11 @@
           <t>email_id</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr"/>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>rrehankahan22@gmail.com</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -535,7 +539,11 @@
           <t>name</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Rehan Khan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/theme_data.xlsx
+++ b/theme_data.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cyan</t>
+          <t>BlueGray</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gray</t>
+          <t>LightBlue</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>rrehankahan22@gmail.com</t>
+          <t>olivia.srs@gmail.com</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rehan Khan</t>
+          <t xml:space="preserve">olivia </t>
         </is>
       </c>
     </row>

--- a/theme_data.xlsx
+++ b/theme_data.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dark</t>
+          <t>Light</t>
         </is>
       </c>
     </row>
@@ -475,7 +475,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BlueGray</t>
+          <t>Red</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LightBlue</t>
+          <t>Amber</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>olivia.srs@gmail.com</t>
+          <t>amar.naik56@gmail.com</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">olivia </t>
+          <t>amar</t>
         </is>
       </c>
     </row>
